--- a/2014-2018_by_gender_by_year.xlsx
+++ b/2014-2018_by_gender_by_year.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>YEAR</t>
   </si>
   <si>
+    <t>Total num</t>
+  </si>
+  <si>
     <t>Pre Score F</t>
   </si>
   <si>
@@ -34,9 +37,21 @@
     <t>Gain F</t>
   </si>
   <si>
+    <t>Norm Gain</t>
+  </si>
+  <si>
+    <t>Norm Gain Error</t>
+  </si>
+  <si>
+    <t>Gain Error sqrt</t>
+  </si>
+  <si>
     <t>Gain Error</t>
   </si>
   <si>
+    <t>Num F</t>
+  </si>
+  <si>
     <t>Pre Score M</t>
   </si>
   <si>
@@ -52,7 +67,19 @@
     <t>Gain M</t>
   </si>
   <si>
+    <t>Norm gain M</t>
+  </si>
+  <si>
+    <t>Norm gain error</t>
+  </si>
+  <si>
     <t>Gain M Error</t>
+  </si>
+  <si>
+    <t>Gain M error sqrt</t>
+  </si>
+  <si>
+    <t>Num M</t>
   </si>
   <si>
     <t>2014 111</t>
@@ -440,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,445 +513,730 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>12.29411764705882</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.7747455585593874</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16.26666666666667</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.961585391240146</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.972549019607841</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>0.2243632336655592</v>
+      </c>
+      <c r="J2">
+        <v>0.02844124330170442</v>
+      </c>
+      <c r="K2">
         <v>1.234859160047801</v>
       </c>
-      <c r="I2">
+      <c r="L2">
+        <v>0.4840439452830782</v>
+      </c>
+      <c r="M2">
+        <v>51</v>
+      </c>
+      <c r="N2">
         <v>19.04225352112676</v>
       </c>
-      <c r="J2">
+      <c r="O2">
         <v>0.7144489285571241</v>
       </c>
-      <c r="K2">
+      <c r="P2">
         <v>20.46774193548387</v>
       </c>
-      <c r="L2">
+      <c r="Q2">
         <v>0.7991659262316229</v>
       </c>
-      <c r="M2">
+      <c r="R2">
         <v>1.425488414357112</v>
       </c>
-      <c r="N2">
+      <c r="S2">
+        <v>0.1300895596649806</v>
+      </c>
+      <c r="T2">
+        <v>0.05000719128523947</v>
+      </c>
+      <c r="U2">
         <v>1.071962428989967</v>
       </c>
+      <c r="V2">
+        <v>0.4385821197580691</v>
+      </c>
+      <c r="W2">
+        <v>71</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3">
+        <v>187</v>
+      </c>
+      <c r="D3">
         <v>8.441441441441441</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3387805574758054</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11.18</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.4684770080491754</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.738558558558559</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.1270288340994568</v>
+      </c>
+      <c r="J3">
+        <v>0.01742777995922866</v>
+      </c>
+      <c r="K3">
         <v>0.5781375037085249</v>
       </c>
-      <c r="I3">
+      <c r="L3">
+        <v>0.3608785575970583</v>
+      </c>
+      <c r="M3">
+        <v>111</v>
+      </c>
+      <c r="N3">
         <v>12.85526315789474</v>
       </c>
-      <c r="J3">
+      <c r="O3">
         <v>0.5135715831376025</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <v>14.83870967741935</v>
       </c>
-      <c r="L3">
+      <c r="Q3">
         <v>0.7352259096542473</v>
       </c>
-      <c r="M3">
+      <c r="R3">
         <v>1.983446519524618</v>
       </c>
-      <c r="N3">
+      <c r="S3">
+        <v>0.1156883618448741</v>
+      </c>
+      <c r="T3">
+        <v>0.04496989452239333</v>
+      </c>
+      <c r="U3">
         <v>0.8968349397929247</v>
       </c>
+      <c r="V3">
+        <v>0.6170259902574159</v>
+      </c>
+      <c r="W3">
+        <v>76</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4">
+        <v>190</v>
+      </c>
+      <c r="D4">
         <v>12.17441860465116</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5488931432927485</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14.1875</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.5974878183176412</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2.013081395348838</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>0.1129321591650359</v>
+      </c>
+      <c r="J4">
+        <v>0.02285394666213483</v>
+      </c>
+      <c r="K4">
         <v>0.8113417133315458</v>
       </c>
-      <c r="I4">
+      <c r="L4">
+        <v>0.3601928983900611</v>
+      </c>
+      <c r="M4">
+        <v>86</v>
+      </c>
+      <c r="N4">
         <v>17</v>
       </c>
-      <c r="J4">
+      <c r="O4">
         <v>0.6225774558828503</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>19.6</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <v>0.7672770734003416</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>2.600000000000001</v>
       </c>
-      <c r="N4">
+      <c r="S4">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="U4">
         <v>0.9880874434681151</v>
       </c>
+      <c r="V4">
+        <v>0.4189968136698011</v>
+      </c>
+      <c r="W4">
+        <v>104</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5">
+        <v>219</v>
+      </c>
+      <c r="D5">
         <v>8.4765625</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3420506211511273</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>12.09016393442623</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.4473353793918954</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3.613601434426229</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.1678914641040136</v>
+      </c>
+      <c r="J5">
+        <v>0.01657304314922326</v>
+      </c>
+      <c r="K5">
         <v>0.563123049684137</v>
       </c>
-      <c r="I5">
+      <c r="L5">
+        <v>0.3502235469448585</v>
+      </c>
+      <c r="M5">
+        <v>128</v>
+      </c>
+      <c r="N5">
         <v>13.02222222222222</v>
       </c>
-      <c r="J5">
+      <c r="O5">
         <v>0.5766963854951237</v>
       </c>
-      <c r="K5">
+      <c r="P5">
         <v>16.52873563218391</v>
       </c>
-      <c r="L5">
+      <c r="Q5">
         <v>0.693814863305895</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>3.506513409961684</v>
       </c>
-      <c r="N5">
+      <c r="S5">
+        <v>0.2065354757176385</v>
+      </c>
+      <c r="T5">
+        <v>0.03037152493102834</v>
+      </c>
+      <c r="U5">
         <v>0.9021960904300783</v>
       </c>
+      <c r="V5">
+        <v>0.4424288949386546</v>
+      </c>
+      <c r="W5">
+        <v>91</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6">
+        <v>221</v>
+      </c>
+      <c r="D6">
         <v>12.55913978494624</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.5325897031142705</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>14.98876404494382</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.5990915795093753</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.429624259997585</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0.139306446473351</v>
+      </c>
+      <c r="J6">
+        <v>0.0299898079537526</v>
+      </c>
+      <c r="K6">
         <v>0.8015999703732435</v>
       </c>
-      <c r="I6">
+      <c r="L6">
+        <v>0.4292383501986853</v>
+      </c>
+      <c r="M6">
+        <v>93</v>
+      </c>
+      <c r="N6">
         <v>18.248</v>
       </c>
-      <c r="J6">
+      <c r="O6">
         <v>0.5176442918677127</v>
       </c>
-      <c r="K6">
+      <c r="P6">
         <v>19.35398230088495</v>
       </c>
-      <c r="L6">
+      <c r="Q6">
         <v>0.6576545731672686</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>1.105982300884953</v>
       </c>
-      <c r="N6">
+      <c r="S6">
+        <v>0.09411013452050319</v>
+      </c>
+      <c r="U6">
         <v>0.8369379609690601</v>
       </c>
+      <c r="V6">
+        <v>0.3660093360776047</v>
+      </c>
+      <c r="W6">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7">
+        <v>262</v>
+      </c>
+      <c r="D7">
         <v>8.394117647058824</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3306268302147993</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13.14110429447853</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.4233112369027712</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4.746986647419703</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>0.2197080669919275</v>
+      </c>
+      <c r="J7">
+        <v>0.02606069692203975</v>
+      </c>
+      <c r="K7">
         <v>0.5371280146725171</v>
       </c>
-      <c r="I7">
+      <c r="L7">
+        <v>0.3619644739167225</v>
+      </c>
+      <c r="M7">
+        <v>170</v>
+      </c>
+      <c r="N7">
         <v>13.79120879120879</v>
       </c>
-      <c r="J7">
+      <c r="O7">
         <v>0.585439209494712</v>
       </c>
-      <c r="K7">
+      <c r="P7">
         <v>17.48780487804878</v>
       </c>
-      <c r="L7">
+      <c r="Q7">
         <v>0.7598086698811521</v>
       </c>
-      <c r="M7">
+      <c r="R7">
         <v>3.696596086839989</v>
       </c>
-      <c r="N7">
+      <c r="S7">
+        <v>0.2280611823067383</v>
+      </c>
+      <c r="T7">
+        <v>0.04300290687862524</v>
+      </c>
+      <c r="U7">
         <v>0.9591914735027407</v>
       </c>
+      <c r="V7">
+        <v>0.5481119996978467</v>
+      </c>
+      <c r="W7">
+        <v>92</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8">
+        <v>175</v>
+      </c>
+      <c r="D8">
         <v>13.54545454545454</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.83919882500575</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>15.01923076923077</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.8832659062239271</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.473776223776225</v>
       </c>
-      <c r="H8">
+      <c r="I8">
+        <v>0.08956651083722915</v>
+      </c>
+      <c r="J8">
+        <v>0.05372298577769118</v>
+      </c>
+      <c r="K8">
         <v>1.218365022884606</v>
       </c>
-      <c r="I8">
+      <c r="L8">
+        <v>0.5391277391388291</v>
+      </c>
+      <c r="M8">
+        <v>55</v>
+      </c>
+      <c r="N8">
         <v>18.025</v>
       </c>
-      <c r="J8">
+      <c r="O8">
         <v>0.6216746269043758</v>
       </c>
-      <c r="K8">
+      <c r="P8">
         <v>20.03636363636364</v>
       </c>
-      <c r="L8">
+      <c r="Q8">
         <v>0.6712153060758306</v>
       </c>
-      <c r="M8">
+      <c r="R8">
         <v>2.011363636363637</v>
       </c>
-      <c r="N8">
+      <c r="S8">
+        <v>0.1679635604479028</v>
+      </c>
+      <c r="U8">
         <v>0.9148821393202328</v>
       </c>
+      <c r="V8">
+        <v>0.4667754206794948</v>
+      </c>
+      <c r="W8">
+        <v>120</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C9">
+        <v>251</v>
+      </c>
+      <c r="D9">
         <v>9.282208588957054</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3492571403148321</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>14.69677419354839</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.4553249799113191</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5.414565604591333</v>
       </c>
-      <c r="H9">
+      <c r="I9">
+        <v>0.261348591515661</v>
+      </c>
+      <c r="J9">
+        <v>0.01840167632098874</v>
+      </c>
+      <c r="K9">
         <v>0.5738478782675226</v>
       </c>
-      <c r="I9">
+      <c r="L9">
+        <v>0.3698686839386575</v>
+      </c>
+      <c r="M9">
+        <v>163</v>
+      </c>
+      <c r="N9">
         <v>14.73255813953488</v>
       </c>
-      <c r="J9">
+      <c r="O9">
         <v>0.6275534800662569</v>
       </c>
-      <c r="K9">
+      <c r="P9">
         <v>20.4</v>
       </c>
-      <c r="L9">
+      <c r="Q9">
         <v>0.6002636551518028</v>
       </c>
-      <c r="M9">
+      <c r="R9">
         <v>5.667441860465114</v>
       </c>
-      <c r="N9">
+      <c r="S9">
+        <v>0.3712109672505711</v>
+      </c>
+      <c r="U9">
         <v>0.8684122442938448</v>
       </c>
+      <c r="V9">
+        <v>0.4913243592729864</v>
+      </c>
+      <c r="W9">
+        <v>88</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C10">
+        <v>159</v>
+      </c>
+      <c r="D10">
         <v>11.95652173913044</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.7906192288107742</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>12.81395348837209</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.9749099478267346</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.8574317492416572</v>
       </c>
-      <c r="H10">
+      <c r="I10">
+        <v>0.04752031381339306</v>
+      </c>
+      <c r="J10">
+        <v>0.03889853635251428</v>
+      </c>
+      <c r="K10">
         <v>1.255200450659921</v>
       </c>
-      <c r="I10">
+      <c r="L10">
+        <v>0.690009575549571</v>
+      </c>
+      <c r="M10">
+        <v>46</v>
+      </c>
+      <c r="N10">
         <v>17.05309734513274</v>
       </c>
-      <c r="J10">
+      <c r="O10">
         <v>0.6324106433840717</v>
       </c>
-      <c r="K10">
+      <c r="P10">
         <v>17.2421052631579</v>
       </c>
-      <c r="L10">
+      <c r="Q10">
         <v>0.687386890131191</v>
       </c>
-      <c r="M10">
+      <c r="R10">
         <v>0.1890079180251512</v>
       </c>
-      <c r="N10">
+      <c r="S10">
+        <v>0.01459869770119076</v>
+      </c>
+      <c r="T10">
+        <v>0.03449851527697276</v>
+      </c>
+      <c r="U10">
         <v>0.9340470858525739</v>
       </c>
+      <c r="V10">
+        <v>0.3179025977388099</v>
+      </c>
+      <c r="W10">
+        <v>113</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11">
+        <v>287</v>
+      </c>
+      <c r="D11">
         <v>9.771276595744681</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.3373599292407899</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>14.10778443113773</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.4384840137280439</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4.336507835393045</v>
       </c>
-      <c r="H11">
+      <c r="I11">
+        <v>0.2143737767693643</v>
+      </c>
+      <c r="J11">
+        <v>0.0168850133911933</v>
+      </c>
+      <c r="K11">
         <v>0.5532449296219588</v>
       </c>
-      <c r="I11">
+      <c r="L11">
+        <v>0.318613100477558</v>
+      </c>
+      <c r="M11">
+        <v>188</v>
+      </c>
+      <c r="N11">
         <v>14.28282828282828</v>
       </c>
-      <c r="J11">
+      <c r="O11">
         <v>0.549739992896476</v>
       </c>
-      <c r="K11">
+      <c r="P11">
         <v>18.70114942528735</v>
       </c>
-      <c r="L11">
+      <c r="Q11">
         <v>0.6580805569134573</v>
       </c>
-      <c r="M11">
+      <c r="R11">
         <v>4.418321142459073</v>
       </c>
-      <c r="N11">
+      <c r="S11">
+        <v>0.2811142629199538</v>
+      </c>
+      <c r="T11">
+        <v>0.03362558601135256</v>
+      </c>
+      <c r="U11">
         <v>0.8574870723091652</v>
+      </c>
+      <c r="V11">
+        <v>0.46731315739378</v>
+      </c>
+      <c r="W11">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
